--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -28,14 +28,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>flag</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -56,18 +48,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>引用其他id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>唠嗑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头注释</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>哈哈,呵呵</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -76,10 +56,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>地图是否开启</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>data#{}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -96,10 +72,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>对象数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>对象数组</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -120,11 +92,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>datatype:percent;datavalue:45</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>words#[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字数组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串数组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔数组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode:percent;value:45</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1069,44 +1069,45 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1117,22 +1118,22 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1140,25 +1141,25 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1172,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
